--- a/Data Files/IHS_IP_permissions/expected_results_records_us.xlsx
+++ b/Data Files/IHS_IP_permissions/expected_results_records_us.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcfu/Katalon Studio/HCI_Group/Data Files/IHS_IP_permissions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0787123-ACC1-C34B-ABD1-3379A6679903}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="11080" yWindow="-14900" windowWidth="16760" windowHeight="14900" tabRatio="500" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abyssinian" sheetId="1" r:id="rId1"/>
@@ -25,7 +31,7 @@
     <sheet name="Monica" sheetId="16" r:id="rId16"/>
     <sheet name="Purple" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="33">
   <si>
     <t>Names</t>
   </si>
@@ -129,11 +135,17 @@
   <si>
     <t>CSA,ESA,JAXA,RSA</t>
   </si>
+  <si>
+    <t>ITAR</t>
+  </si>
+  <si>
+    <t>HP_Boeing_inwork,ITAR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -535,6 +547,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -859,14 +879,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
@@ -874,7 +894,7 @@
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -908,7 +928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -916,7 +936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -927,7 +947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -938,7 +958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -949,18 +969,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -968,15 +991,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -984,7 +1013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -994,7 +1023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1002,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1015,21 +1044,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1040,7 +1069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1048,7 +1077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1056,15 +1085,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -1082,16 +1111,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +1156,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1143,7 +1172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1189,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1168,21 +1197,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1190,7 +1222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,7 +1238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1228,7 +1260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1236,7 +1268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1252,7 +1284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,7 +1292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,7 +1300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1289,16 +1321,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1366,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1353,7 +1385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1400,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1383,18 +1415,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1402,19 +1437,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1422,7 +1461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1430,7 +1469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1438,7 +1477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1446,23 +1485,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1476,7 +1515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +1523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1492,15 +1531,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -1518,16 +1557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1563,7 +1602,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1582,7 +1621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1597,7 +1636,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1612,18 +1651,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1631,19 +1673,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1651,7 +1697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1659,7 +1705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1667,7 +1713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1681,23 +1727,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1711,7 +1757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,7 +1765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1727,15 +1773,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -1753,16 +1799,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1798,7 +1844,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1806,7 +1852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1817,7 +1863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1832,7 +1878,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1847,18 +1893,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1866,19 +1915,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1886,7 +1939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1894,7 +1947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1902,7 +1955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1910,21 +1963,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +1991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1946,7 +1999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1954,15 +2007,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -1980,16 +2033,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +2065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2025,7 +2078,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2033,7 +2086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2044,7 +2097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2059,7 +2112,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2074,18 +2127,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2093,19 +2149,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2113,7 +2173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2129,7 +2189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2137,23 +2197,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2167,7 +2227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2175,7 +2235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2183,15 +2243,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -2208,16 +2268,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2253,7 +2313,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2261,7 +2321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2272,7 +2332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2287,7 +2347,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2302,18 +2362,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2321,19 +2384,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2341,7 +2408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2349,7 +2416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2365,23 +2432,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2395,7 +2462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2417,15 +2484,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -2443,16 +2510,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2475,7 +2542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2488,7 +2555,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2496,7 +2563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2507,7 +2574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2522,7 +2589,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2537,18 +2604,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2556,19 +2626,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2576,7 +2650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2584,7 +2658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2592,7 +2666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2600,23 +2674,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2630,7 +2704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2638,7 +2712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2652,15 +2726,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -2678,16 +2752,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2710,7 +2784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2723,7 +2797,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2731,7 +2805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2742,7 +2816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2757,7 +2831,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2772,18 +2846,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2791,19 +2868,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2819,7 +2900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2827,7 +2908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2835,23 +2916,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2865,7 +2946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2873,7 +2954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2881,15 +2962,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -2907,14 +2988,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
@@ -2923,7 +3004,7 @@
     <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +3027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2954,7 +3035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2968,7 +3049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2976,7 +3057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +3074,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3001,21 +3082,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3023,7 +3107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3031,7 +3115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3039,7 +3123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3047,7 +3131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3055,7 +3139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3063,7 +3147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3071,7 +3155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3079,7 +3163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3087,7 +3171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3095,7 +3179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3116,20 +3200,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3152,7 +3236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3160,7 +3244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3168,7 +3252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3179,7 +3263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3194,7 +3278,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3209,18 +3293,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3228,19 +3315,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3248,7 +3339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3256,7 +3347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3264,7 +3355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3272,23 +3363,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3302,7 +3393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3310,7 +3401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3318,15 +3409,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -3344,19 +3435,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3387,7 +3478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3395,7 +3486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3403,7 +3494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3420,7 +3511,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3428,21 +3519,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3450,7 +3544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3458,7 +3552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3466,7 +3560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3474,7 +3568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3482,7 +3576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3490,7 +3584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3498,7 +3592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3506,7 +3600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3514,7 +3608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3522,7 +3616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3542,19 +3636,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3577,7 +3671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3585,7 +3679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3593,7 +3687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3604,7 +3698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3619,7 +3713,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3634,18 +3728,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3653,19 +3750,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3673,7 +3774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3681,7 +3782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3689,7 +3790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3697,23 +3798,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3727,7 +3828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3735,7 +3836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3743,15 +3844,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -3769,19 +3870,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3815,7 +3916,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3823,7 +3924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3831,7 +3932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3839,7 +3940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3856,7 +3957,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3864,21 +3965,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3886,7 +3990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3894,7 +3998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3902,7 +4006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3910,7 +4014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3918,7 +4022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3926,7 +4030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3934,7 +4038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3942,7 +4046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3950,7 +4054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3958,7 +4062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3979,19 +4083,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4014,7 +4118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4027,7 +4131,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4035,7 +4139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4043,7 +4147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4060,7 +4164,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4068,21 +4172,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4096,7 +4203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4104,7 +4211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4112,7 +4219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4120,7 +4227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4128,7 +4235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4136,7 +4243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -4144,7 +4251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4152,7 +4259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -4160,7 +4267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -4168,7 +4275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -4189,19 +4296,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4224,7 +4331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4237,7 +4344,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4245,7 +4352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4256,7 +4363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4271,7 +4378,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4286,18 +4393,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4305,19 +4415,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4325,7 +4439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4333,7 +4447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4341,7 +4455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4349,23 +4463,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4379,7 +4493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -4387,7 +4501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -4395,15 +4509,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -4421,16 +4535,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4453,7 +4567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4466,7 +4580,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4474,7 +4588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4485,7 +4599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4500,7 +4614,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4515,18 +4629,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4534,19 +4651,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4554,7 +4675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4562,7 +4683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4570,7 +4691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4578,23 +4699,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4608,7 +4729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -4616,7 +4737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -4624,15 +4745,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>

--- a/Data Files/IHS_IP_permissions/expected_results_records_us.xlsx
+++ b/Data Files/IHS_IP_permissions/expected_results_records_us.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcfu/Katalon Studio/HCI_Group/Data Files/IHS_IP_permissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0787123-ACC1-C34B-ABD1-3379A6679903}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36002C28-F821-B94E-AA81-E1D49535B44A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="-14900" windowWidth="16760" windowHeight="14900" tabRatio="500" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28900" yWindow="-1340" windowWidth="16760" windowHeight="14900" tabRatio="500" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abyssinian" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="32">
   <si>
     <t>Names</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>attachment</t>
-  </si>
-  <si>
-    <t>CSA,ESA,JAXA,RSA</t>
   </si>
   <si>
     <t>ITAR</t>
@@ -883,7 +880,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,10 +971,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -996,10 +993,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
@@ -1049,10 +1046,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
@@ -1090,10 +1087,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -1205,10 +1202,10 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1325,7 +1322,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1420,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1443,10 +1440,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -1490,11 +1487,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -1535,11 +1532,11 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -1560,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1656,10 +1653,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1679,10 +1676,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -1717,12 +1714,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1732,11 +1724,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -1777,11 +1769,11 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -1803,7 +1795,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1898,10 +1890,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1921,10 +1913,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -1967,11 +1959,11 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
@@ -2011,11 +2003,11 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -2037,7 +2029,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2132,10 +2124,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -2155,10 +2147,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -2202,11 +2194,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -2247,11 +2239,11 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -2272,7 +2264,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2367,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -2390,10 +2382,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -2437,11 +2429,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -2466,12 +2458,6 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2488,11 +2474,11 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -2513,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2609,10 +2595,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -2632,10 +2618,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -2679,11 +2665,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -2716,12 +2702,6 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2730,11 +2710,11 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -2755,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2851,10 +2831,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -2874,10 +2854,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -2921,11 +2901,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -2966,11 +2946,11 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -3090,10 +3070,10 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -3203,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3298,10 +3278,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -3321,10 +3301,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -3368,11 +3348,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -3413,11 +3393,11 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -3527,10 +3507,10 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -3733,10 +3713,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -3756,10 +3736,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -3803,11 +3783,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -3848,11 +3828,11 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -3973,10 +3953,10 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -4180,10 +4160,10 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -4299,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4398,10 +4378,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -4421,10 +4401,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -4468,11 +4448,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -4513,11 +4493,11 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -4539,7 +4519,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4634,10 +4614,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -4657,10 +4637,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -4704,11 +4684,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -4749,11 +4729,11 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
